--- a/grupo6/Casos de Testes - Grupo 6.xlsx
+++ b/grupo6/Casos de Testes - Grupo 6.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Entrada (Salário; Qtde de dependentes)</t>
   </si>
@@ -49,7 +49,28 @@
     <t xml:space="preserve">Sal:3000;QtdDep:3</t>
   </si>
   <si>
-    <t xml:space="preserve">INSS:330;FGTS:240;ALIQ:2106;IR:15,19;SAL.LIQ:2414,81</t>
+    <t xml:space="preserve">INSS:330;FGTS:240;ALIQ:2106;IR:15,19;SAL.LIQ:2414,81;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sal:800;QtdDep:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSS:64;FGTS:64;ALIQ:548,20;IR:INSENTO;SAL.LIQ:672;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sal:1750;QtdDep:6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSS:157,50;FGTS:140;ALIQ:465,70;IR:INSENTO;SAL.LIQ:1452,50;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sal:4500;QtdDep:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSS:495;FGTS:360;ALIQ:3629,40;IR:189,61:SAL.LIQ:3455,39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSS</t>
   </si>
 </sst>
 </file>
@@ -158,10 +179,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -211,6 +232,35 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/grupo6/Casos de Testes - Grupo 6.xlsx
+++ b/grupo6/Casos de Testes - Grupo 6.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Entrada (Salário; Qtde de dependentes)</t>
   </si>
@@ -34,19 +34,26 @@
     <t xml:space="preserve">Resultado do teste</t>
   </si>
   <si>
-    <t xml:space="preserve">Sal:1500;QtdDepend:2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSS:120;FGTS:120;ALIQ:INSENTO;IR:INSENTO;SAL.LIQ:1260;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sal:1000;QtdDep:8</t>
+    <t xml:space="preserve">Salário – R$1.500,00
+Dependentes – 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSS – R$120,00
+FGTS – R$120,00
+ALIQ – INSENTO
+IR:INSENTO;
+SAL.LIQ:1260;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salário – R$1000,00
+Dependentes – 8</t>
   </si>
   <si>
     <t xml:space="preserve">INSS:80;FGTS:80;ALIQ:INSENTO;IR:INSENTO;SAL.LIQ:840;</t>
   </si>
   <si>
-    <t xml:space="preserve">Sal:3000;QtdDep:3</t>
+    <t xml:space="preserve">Salário – R$3000,00
+Dependentes – 3</t>
   </si>
   <si>
     <t xml:space="preserve">INSS:330;FGTS:240;ALIQ:2106;IR:15,19;SAL.LIQ:2414,81;</t>
@@ -68,9 +75,6 @@
   </si>
   <si>
     <t xml:space="preserve">INSS:495;FGTS:360;ALIQ:3629,40;IR:189,61:SAL.LIQ:3455,39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSS</t>
   </si>
 </sst>
 </file>
@@ -153,13 +157,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -179,18 +187,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.43"/>
   </cols>
   <sheetData>
@@ -208,24 +216,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -256,11 +264,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
